--- a/Testy datepicker.xlsx
+++ b/Testy datepicker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Desktop\API Dziewanna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA7563-519F-43A5-A09F-5F88EF05CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD15353-09E3-4F0B-B8A5-2D8B26D43B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Kroki do odtworzenia</t>
   </si>
   <si>
-    <t>1. Otwarta strona: http://nowaenergy.instrat.pl/wordpress/en/generation-by-technology-entsoe/</t>
-  </si>
-  <si>
     <t>Wybieramy dowolną datę w datepicker</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Po wpisaniu jakiejkolwiek daty możemy wpisac cokolwiek w polu na datę from, dane są edytowalne</t>
+  </si>
+  <si>
+    <t>1. Otwarta strona: http://xxx</t>
   </si>
 </sst>
 </file>
@@ -423,86 +423,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,12 +1036,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>8</v>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1053,25 +1053,25 @@
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1088,14 +1088,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="30" t="s">
-        <v>13</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="2"/>
@@ -1105,11 +1105,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9"/>
       <c r="G9" s="2"/>
     </row>
@@ -1118,38 +1118,38 @@
         <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="30" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="2"/>
@@ -1159,11 +1159,11 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
@@ -1172,42 +1172,42 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -1217,14 +1217,14 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -1234,14 +1234,14 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -1251,33 +1251,33 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="8"/>
@@ -1287,33 +1287,33 @@
         <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="18"/>
       <c r="E21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
@@ -1325,98 +1325,98 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="32" t="s">
-        <v>46</v>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="8"/>
@@ -1425,12 +1425,12 @@
       <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="2"/>
       <c r="G30" s="8"/>
     </row>
@@ -1562,6 +1562,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C30:D30"/>
@@ -1575,22 +1589,8 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
